--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11DC662-3EBE-4A49-A9E1-649CB7B6AA69}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="3855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,30 +165,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计数据库，画出实体模型ER图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助画出实体模型ER图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>画出逻辑模型ER图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助画出逻辑模型ER图</t>
+    <t>设计数据库，画出物理数据模型图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助画出物理数据模型图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出逻辑数据模型图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助画出逻辑数据模型图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：组内进行数据库分析讨论，并分开按顺序完成了逻辑数据模型图和物理数据模型图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,7 +358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,9 +391,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,6 +443,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -595,21 +635,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -617,7 +657,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -631,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -643,7 +683,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -655,7 +695,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -667,7 +707,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -679,7 +719,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -693,7 +733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -701,13 +741,13 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -715,7 +755,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -729,7 +769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -741,7 +781,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -753,7 +793,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -765,7 +805,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -777,7 +817,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -789,7 +829,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -797,13 +837,13 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -811,7 +851,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -825,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -837,7 +877,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -849,7 +889,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -861,7 +901,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -873,7 +913,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -885,7 +925,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>29</v>
       </c>
@@ -893,13 +933,13 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
@@ -907,7 +947,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -921,7 +961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -933,7 +973,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
@@ -945,7 +985,7 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -957,7 +997,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -969,7 +1009,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -981,7 +1021,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>32</v>
       </c>
@@ -989,13 +1029,13 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
@@ -1003,7 +1043,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1017,65 +1057,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="3"/>
+      <c r="B39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1101,12 +1151,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1115,12 +1165,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11DC662-3EBE-4A49-A9E1-649CB7B6AA69}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -184,12 +178,36 @@
     <t>总结：组内进行数据库分析讨论，并分开按顺序完成了逻辑数据模型图和物理数据模型图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>日期：2018.10.17 第七周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论设计交互文档，编写数据库文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论设计交互文档，辅助编写数据库文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论设计交互文档，编写交互文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论设计交互文档，辅助编写交互文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论设计交互文档，学习Android发送数据到Javaweb后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +231,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -270,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -292,11 +318,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -358,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,26 +420,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,23 +455,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -635,21 +630,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D45"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="46.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -657,7 +652,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -671,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -683,7 +678,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -695,7 +690,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -707,7 +702,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -719,7 +714,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -733,21 +728,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -755,7 +750,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -769,7 +764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -781,7 +776,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -793,7 +788,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -805,7 +800,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -817,7 +812,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -829,21 +824,21 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -851,7 +846,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -865,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -877,7 +872,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -889,7 +884,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -901,7 +896,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -913,7 +908,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -925,21 +920,21 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
@@ -947,7 +942,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -961,7 +956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -973,7 +968,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
@@ -985,7 +980,7 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -997,7 +992,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1009,7 +1004,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -1021,21 +1016,21 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
@@ -1043,7 +1038,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1057,7 +1052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1064,7 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1076,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -1093,7 +1088,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -1105,7 +1100,7 @@
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -1117,32 +1112,130 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A44:D45"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A26:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1151,12 +1244,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1165,12 +1258,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -200,6 +200,27 @@
   </si>
   <si>
     <t>讨论设计交互文档，学习Android发送数据到Javaweb后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互设计还没结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>总结：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据库文档编写完成，并进行了交互设计的讨论，但进度比较缓慢（60%），还需要一天时间进行讨论和编写交互文档</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -315,6 +336,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,9 +347,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -645,12 +666,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -729,26 +750,26 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -825,26 +846,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -921,26 +942,26 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -1017,26 +1038,26 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -1113,26 +1134,26 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -1156,9 +1177,11 @@
         <v>42</v>
       </c>
       <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
@@ -1168,7 +1191,7 @@
         <v>43</v>
       </c>
       <c r="C49" s="3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D49" s="2"/>
     </row>
@@ -1176,11 +1199,11 @@
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -1192,7 +1215,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D51" s="2"/>
     </row>
@@ -1204,23 +1227,23 @@
         <v>41</v>
       </c>
       <c r="C52" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="A53" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="63">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -223,12 +223,102 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>汇报工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.22 第八</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.10.18</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第七周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王志豪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android端准备工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台框架设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：开始开发前的准备工作已经就绪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.24 第八周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张源华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【注册登录】后台逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【注册登录】后台数据库处理部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【注册登录】前端UI部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【注册登录】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【注册登录】交互文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +356,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,7 +374,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -311,13 +410,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -339,14 +462,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:D54"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -665,15 +818,21 @@
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="T1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -686,8 +845,20 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -698,8 +869,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="T3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="2"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -710,8 +887,14 @@
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="T4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -722,8 +905,14 @@
         <v>1</v>
       </c>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="T5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -734,8 +923,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="T6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -748,30 +943,46 @@
       <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="T7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="T8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -785,7 +996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -797,7 +1008,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -809,7 +1020,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -821,7 +1032,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -833,7 +1044,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -860,12 +1071,12 @@
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -956,12 +1167,12 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -1052,12 +1263,12 @@
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -1148,12 +1359,12 @@
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -1245,8 +1456,288 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="17">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="17">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="19">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="25">
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T8:W9"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A62:D63"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A64:D64"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A53:D54"/>
     <mergeCell ref="A1:D1"/>
@@ -1254,11 +1745,6 @@
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A26:D27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -311,6 +311,42 @@
   </si>
   <si>
     <t>编写【注册登录】交互文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仍未进行单元测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现功能中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：刚开始编码大家都有点生疏，所以进度变得慢，明天会继续实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.25 第八周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【注册登录】后台功能测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【主页（地图）】前端UI部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成【注册登录】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完成【注册登录】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【GPS采集到后台】交互文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,12 +501,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,23 +531,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W81"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,18 +861,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="T1" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="T1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -951,36 +993,36 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="T8" s="8" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="T8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1057,26 +1099,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -1153,26 +1195,26 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -1249,26 +1291,26 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -1345,26 +1387,26 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -1443,26 +1485,26 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
@@ -1482,7 +1524,7 @@
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3">
@@ -1494,7 +1536,7 @@
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="16"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="3">
         <v>1</v>
       </c>
@@ -1504,7 +1546,7 @@
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="16"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -1514,7 +1556,7 @@
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="3">
         <v>1</v>
       </c>
@@ -1524,33 +1566,33 @@
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="11"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
@@ -1570,10 +1612,10 @@
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="11">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
@@ -1582,18 +1624,18 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="18"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="11">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
@@ -1602,8 +1644,8 @@
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="18"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="12"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1613,32 +1655,32 @@
       <c r="B70" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C70" s="8">
         <v>1</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
@@ -1661,8 +1703,12 @@
       <c r="B75" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="2"/>
+      <c r="C75" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
@@ -1671,8 +1717,10 @@
       <c r="B76" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="2"/>
+      <c r="C76" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
@@ -1681,7 +1729,9 @@
       <c r="B77" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3">
+        <v>1</v>
+      </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
@@ -1691,8 +1741,12 @@
       <c r="B78" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="2"/>
+      <c r="C78" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
@@ -1701,43 +1755,121 @@
       <c r="B79" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3">
+        <v>1</v>
+      </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
+  <mergeCells count="28">
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="D75:D76"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="T8:W9"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A62:D63"/>
     <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A64:D64"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A53:D54"/>
     <mergeCell ref="A1:D1"/>
@@ -1745,6 +1877,19 @@
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -347,6 +347,14 @@
   </si>
   <si>
     <t>编写【GPS采集到后台】交互文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有小部分工作处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：已经将【注册登录】功能实现</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -504,44 +512,44 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -861,18 +869,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="T1" s="13" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="T1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -993,36 +1001,36 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="T8" s="9" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="T8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1099,26 +1107,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -1195,26 +1203,26 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -1291,26 +1299,26 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -1387,26 +1395,26 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -1485,26 +1493,26 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
@@ -1524,7 +1532,7 @@
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3">
@@ -1536,7 +1544,7 @@
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="19"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="3">
         <v>1</v>
       </c>
@@ -1546,7 +1554,7 @@
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="19"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -1556,7 +1564,7 @@
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="3">
         <v>1</v>
       </c>
@@ -1566,33 +1574,33 @@
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="15"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
@@ -1612,10 +1620,10 @@
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="20">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
@@ -1624,18 +1632,18 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="12"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="20">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
@@ -1644,8 +1652,8 @@
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="12"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1661,26 +1669,26 @@
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
@@ -1706,7 +1714,7 @@
       <c r="C75" s="3">
         <v>0.9</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1720,7 +1728,7 @@
       <c r="C76" s="3">
         <v>0.9</v>
       </c>
-      <c r="D76" s="21"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
@@ -1761,26 +1769,26 @@
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
@@ -1803,7 +1811,9 @@
       <c r="B84" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
@@ -1813,7 +1823,9 @@
       <c r="B85" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3">
+        <v>1</v>
+      </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -1823,8 +1835,12 @@
       <c r="B86" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="2"/>
+      <c r="C86" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
@@ -1833,7 +1849,9 @@
       <c r="B87" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3">
+        <v>1</v>
+      </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -1843,25 +1861,39 @@
       <c r="B88" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
+      <c r="A89" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A64:D64"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A89:D90"/>
     <mergeCell ref="D75:D76"/>
@@ -1878,18 +1910,6 @@
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="80">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -355,6 +355,30 @@
   </si>
   <si>
     <t>总结：已经将【注册登录】功能实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【定位数据保存】后台数据库处理部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写【定位数据保存】后台数据库处理部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加【百度地图】到前端首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习【百度地图】生成点创建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改数据库中【Map】结构，修改数据库文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.29 第九周周一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -512,14 +536,35 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,29 +572,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W90"/>
+  <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:D90"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -869,18 +893,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="T1" s="9" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="T1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1001,36 +1025,36 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="T8" s="10" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="T8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1107,26 +1131,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -1203,26 +1227,26 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -1299,26 +1323,26 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -1395,26 +1419,26 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -1493,26 +1517,26 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
@@ -1532,7 +1556,7 @@
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3">
@@ -1544,7 +1568,7 @@
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="16"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="3">
         <v>1</v>
       </c>
@@ -1554,7 +1578,7 @@
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="16"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -1564,7 +1588,7 @@
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="3">
         <v>1</v>
       </c>
@@ -1574,33 +1598,33 @@
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="17"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
@@ -1620,10 +1644,10 @@
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="11">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
@@ -1632,18 +1656,18 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="21"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="11">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
@@ -1652,8 +1676,8 @@
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="21"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="12"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1669,26 +1693,26 @@
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
@@ -1714,7 +1738,7 @@
       <c r="C75" s="3">
         <v>0.9</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1728,7 +1752,7 @@
       <c r="C76" s="3">
         <v>0.9</v>
       </c>
-      <c r="D76" s="13"/>
+      <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
@@ -1769,26 +1793,26 @@
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
@@ -1867,33 +1891,109 @@
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A64:D64"/>
+  <mergeCells count="30">
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A98:D99"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A89:D90"/>
     <mergeCell ref="D75:D76"/>
@@ -1910,6 +2010,18 @@
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -379,6 +379,14 @@
   </si>
   <si>
     <t>日期：2018.10.29 第九周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有小部分工作处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：首页地图已经添加成功，后台数据库处理部分编写仍需要半小时左右才能完成，完成后准备开始逻辑部分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -882,7 +890,7 @@
   <dimension ref="A1:W99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:D91"/>
+      <selection activeCell="A98" sqref="A98:D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1933,8 +1941,12 @@
       <c r="B93" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="2"/>
+      <c r="C93" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
@@ -1943,8 +1955,10 @@
       <c r="B94" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="2"/>
+      <c r="C94" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D94" s="20"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
@@ -1953,7 +1967,9 @@
       <c r="B95" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="3">
+        <v>1</v>
+      </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -1963,7 +1979,9 @@
       <c r="B96" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C96" s="3"/>
+      <c r="C96" s="3">
+        <v>1</v>
+      </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -1973,12 +1991,14 @@
       <c r="B97" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C97" s="3"/>
+      <c r="C97" s="3">
+        <v>1</v>
+      </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="9" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -1991,9 +2011,10 @@
       <c r="D99" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A98:D99"/>
+    <mergeCell ref="D93:D94"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A89:D90"/>
     <mergeCell ref="D75:D76"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="96">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -387,6 +387,62 @@
   </si>
   <si>
     <t>总结：首页地图已经添加成功，后台数据库处理部分编写仍需要半小时左右才能完成，完成后准备开始逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.31 第九周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【定位数据保存】后台逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善【定位数据保存】后台数据库处理部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计首页侧滑功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【定位数据保存】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【创群，加群】交互文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在定位不准确问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仍然在设计中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：定位已初步设计完成，首页侧滑设计仍未开始，工作受阻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【创群，加群】后台逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【创群，加群】后台数据库部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复【定位数据保存】存在的定位不准确问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助修复定位不准确问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.1 第五周周四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -544,22 +600,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -571,17 +633,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W99"/>
+  <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:D99"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -901,18 +957,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="T1" s="13" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="T1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1033,36 +1089,36 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="T8" s="9" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="T8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1139,26 +1195,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -1235,26 +1291,26 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -1331,26 +1387,26 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -1427,26 +1483,26 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -1525,26 +1581,26 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
@@ -1564,7 +1620,7 @@
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3">
@@ -1576,7 +1632,7 @@
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="3">
         <v>1</v>
       </c>
@@ -1586,7 +1642,7 @@
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -1596,7 +1652,7 @@
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="3">
         <v>1</v>
       </c>
@@ -1606,33 +1662,33 @@
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="15"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
@@ -1652,10 +1708,10 @@
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="20">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
@@ -1664,18 +1720,18 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="12"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="20">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
@@ -1684,8 +1740,8 @@
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="12"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1701,26 +1757,26 @@
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
@@ -1746,7 +1802,7 @@
       <c r="C75" s="3">
         <v>0.9</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1760,7 +1816,7 @@
       <c r="C76" s="3">
         <v>0.9</v>
       </c>
-      <c r="D76" s="20"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
@@ -1801,26 +1857,26 @@
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
@@ -1899,26 +1955,26 @@
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
@@ -1944,7 +2000,7 @@
       <c r="C93" s="3">
         <v>0.9</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="12" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1958,7 +2014,7 @@
       <c r="C94" s="3">
         <v>0.9</v>
       </c>
-      <c r="D94" s="20"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
@@ -1997,26 +2053,221 @@
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A98:D99"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
+  <mergeCells count="35">
+    <mergeCell ref="A116:D117"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A73:D73"/>
     <mergeCell ref="D75:D76"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="T8:W9"/>
@@ -2033,16 +2284,11 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A26:D27"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A98:D99"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="103">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -442,7 +442,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.11.1 第五周周四</t>
+    <t>总结：主要解决了地图定位中地图不加载，定位非洲的问题，并开始编写下一部分工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善【创群，加群】后台逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合侧滑功能到项目主体中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完善【创群，加群】后台逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【加群通知类】交互文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【创群，加群】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.5 第十周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.1 第九周周四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -600,28 +628,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -633,11 +649,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,9 +971,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W117"/>
+  <dimension ref="A1:W126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
       <selection activeCell="A109" sqref="A109:D109"/>
     </sheetView>
   </sheetViews>
@@ -957,18 +985,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="T1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1089,36 +1117,36 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="T8" s="10" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="T8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1195,26 +1223,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -1291,26 +1319,26 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -1387,26 +1415,26 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -1483,26 +1511,26 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -1581,26 +1609,26 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
@@ -1620,7 +1648,7 @@
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3">
@@ -1632,7 +1660,7 @@
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="16"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="3">
         <v>1</v>
       </c>
@@ -1642,7 +1670,7 @@
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="16"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -1652,7 +1680,7 @@
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="3">
         <v>1</v>
       </c>
@@ -1662,33 +1690,33 @@
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="17"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
@@ -1708,10 +1736,10 @@
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="17">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
@@ -1720,18 +1748,18 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="21"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="17">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
@@ -1740,8 +1768,8 @@
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="21"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1757,26 +1785,26 @@
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
@@ -1802,7 +1830,7 @@
       <c r="C75" s="3">
         <v>0.9</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1816,7 +1844,7 @@
       <c r="C76" s="3">
         <v>0.9</v>
       </c>
-      <c r="D76" s="13"/>
+      <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
@@ -1857,26 +1885,26 @@
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
@@ -1955,26 +1983,26 @@
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
@@ -2000,7 +2028,7 @@
       <c r="C93" s="3">
         <v>0.9</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D93" s="19" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2014,7 +2042,7 @@
       <c r="C94" s="3">
         <v>0.9</v>
       </c>
-      <c r="D94" s="13"/>
+      <c r="D94" s="20"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
@@ -2053,26 +2081,26 @@
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -2153,26 +2181,26 @@
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
+      <c r="A109" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
@@ -2195,7 +2223,9 @@
       <c r="B111" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C111" s="3"/>
+      <c r="C111" s="3">
+        <v>0.7</v>
+      </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
@@ -2205,7 +2235,9 @@
       <c r="B112" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C112" s="3"/>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
@@ -2215,7 +2247,9 @@
       <c r="B113" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C113" s="3"/>
+      <c r="C113" s="3">
+        <v>1</v>
+      </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
@@ -2225,7 +2259,9 @@
       <c r="B114" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
@@ -2235,25 +2271,134 @@
       <c r="B115" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C115" s="3"/>
+      <c r="C115" s="3">
+        <v>1</v>
+      </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
+    <mergeCell ref="A125:D126"/>
+    <mergeCell ref="A98:D99"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T8:W9"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A62:D63"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A26:D27"/>
     <mergeCell ref="A116:D117"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A44:D45"/>
@@ -2269,26 +2414,7 @@
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="D75:D76"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="T8:W9"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A62:D63"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A26:D27"/>
     <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A98:D99"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="106">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -450,10 +450,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>整合侧滑功能到项目主体中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>辅助完善【创群，加群】后台逻辑部分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -471,6 +467,22 @@
   </si>
   <si>
     <t>日期：2018.11.1 第九周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合侧滑功能到项目主体中,编写【创群，加群】前端UI部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI部分今天会完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：首页添加了侧滑功能，开始开发创群、加群部分内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待UI编写完成进行整合</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -634,10 +646,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -649,23 +673,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,30 +985,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:D109"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="T1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="T1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1141,12 +1153,12 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1237,12 +1249,12 @@
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -1333,12 +1345,12 @@
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -1429,12 +1441,12 @@
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -1525,12 +1537,12 @@
       <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -1623,12 +1635,12 @@
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
@@ -1648,7 +1660,7 @@
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3">
@@ -1660,7 +1672,7 @@
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="3">
         <v>1</v>
       </c>
@@ -1670,7 +1682,7 @@
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -1680,7 +1692,7 @@
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="3">
         <v>1</v>
       </c>
@@ -1690,7 +1702,7 @@
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
@@ -1711,12 +1723,12 @@
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
@@ -1736,10 +1748,10 @@
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="20">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
@@ -1748,18 +1760,18 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="18"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="20">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
@@ -1768,8 +1780,8 @@
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1799,12 +1811,12 @@
       <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
@@ -1830,7 +1842,7 @@
       <c r="C75" s="3">
         <v>0.9</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1844,7 +1856,7 @@
       <c r="C76" s="3">
         <v>0.9</v>
       </c>
-      <c r="D76" s="20"/>
+      <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
@@ -1899,12 +1911,12 @@
       <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
@@ -1997,12 +2009,12 @@
       <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
@@ -2028,7 +2040,7 @@
       <c r="C93" s="3">
         <v>0.9</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2042,7 +2054,7 @@
       <c r="C94" s="3">
         <v>0.9</v>
       </c>
-      <c r="D94" s="20"/>
+      <c r="D94" s="12"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
@@ -2095,12 +2107,12 @@
       <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -2195,12 +2207,12 @@
       <c r="D108" s="10"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
+      <c r="A109" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
@@ -2291,12 +2303,12 @@
       <c r="D117" s="10"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
+      <c r="A118" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
@@ -2319,7 +2331,9 @@
       <c r="B120" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="3"/>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
       <c r="D120" s="2"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
@@ -2327,9 +2341,11 @@
         <v>10</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C121" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1</v>
+      </c>
       <c r="D121" s="2"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
@@ -2337,34 +2353,44 @@
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C124" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1</v>
+      </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="9" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -2378,12 +2404,20 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A125:D126"/>
-    <mergeCell ref="A98:D99"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A91:D91"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="T8:W9"/>
     <mergeCell ref="A55:D55"/>
@@ -2399,22 +2433,14 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A26:D27"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A125:D126"/>
+    <mergeCell ref="A98:D99"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A118:D118"/>
     <mergeCell ref="A116:D117"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A91:D91"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="112">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -446,43 +446,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>辅助完善【创群，加群】后台逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【加群通知类】交互文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【创群，加群】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.5 第十周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.1 第九周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合侧滑功能到项目主体中,编写【创群，加群】前端UI部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI部分今天会完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：首页添加了侧滑功能，开始开发创群、加群部分内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待UI编写完成进行整合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>完善【创群，加群】后台逻辑部分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>辅助完善【创群，加群】后台逻辑部分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写【加群通知类】交互文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写【创群，加群】前端逻辑部分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.11.5 第十周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2018.11.1 第九周周四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合侧滑功能到项目主体中,编写【创群，加群】前端UI部分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI部分今天会完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：首页添加了侧滑功能，开始开发创群、加群部分内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待UI编写完成进行整合</t>
+    <t>测试【创群】后台功能，编写【加群通知】后台逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【加群通知】后台数据库部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善【创群，加群】前端UI部分，编写【聊天页面】前端UI部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善【创群，加群】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助完善【创群，加群】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.7 第十周周三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -646,22 +670,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -673,11 +685,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W126"/>
+  <dimension ref="A1:W135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -997,18 +1021,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="T1" s="13" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1153,12 +1177,12 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1249,12 +1273,12 @@
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -1345,12 +1369,12 @@
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -1441,12 +1465,12 @@
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -1537,12 +1561,12 @@
       <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -1635,12 +1659,12 @@
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
@@ -1660,7 +1684,7 @@
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3">
@@ -1672,7 +1696,7 @@
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="16"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="3">
         <v>1</v>
       </c>
@@ -1682,7 +1706,7 @@
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="16"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -1692,7 +1716,7 @@
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="3">
         <v>1</v>
       </c>
@@ -1702,7 +1726,7 @@
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="17"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
@@ -1723,12 +1747,12 @@
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
@@ -1748,10 +1772,10 @@
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="17">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
@@ -1760,18 +1784,18 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="21"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="17">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
@@ -1780,8 +1804,8 @@
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="21"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1811,12 +1835,12 @@
       <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
@@ -1842,7 +1866,7 @@
       <c r="C75" s="3">
         <v>0.9</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1856,7 +1880,7 @@
       <c r="C76" s="3">
         <v>0.9</v>
       </c>
-      <c r="D76" s="12"/>
+      <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
@@ -1911,12 +1935,12 @@
       <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
@@ -2009,12 +2033,12 @@
       <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
@@ -2040,7 +2064,7 @@
       <c r="C93" s="3">
         <v>0.9</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="19" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2054,7 +2078,7 @@
       <c r="C94" s="3">
         <v>0.9</v>
       </c>
-      <c r="D94" s="12"/>
+      <c r="D94" s="20"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
@@ -2107,12 +2131,12 @@
       <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -2207,12 +2231,12 @@
       <c r="D108" s="10"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
+      <c r="A109" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
@@ -2303,12 +2327,12 @@
       <c r="D117" s="10"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
+      <c r="A118" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
@@ -2329,7 +2353,7 @@
         <v>6</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
@@ -2341,7 +2365,7 @@
         <v>10</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C121" s="3">
         <v>1</v>
@@ -2353,13 +2377,13 @@
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C122" s="3">
         <v>0.9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
@@ -2367,13 +2391,13 @@
         <v>9</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C123" s="3">
         <v>0.5</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
@@ -2381,7 +2405,7 @@
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
@@ -2390,7 +2414,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -2402,22 +2426,103 @@
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
     </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A91:D91"/>
+  <mergeCells count="39">
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A134:D135"/>
+    <mergeCell ref="A125:D126"/>
+    <mergeCell ref="A98:D99"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A116:D117"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="T8:W9"/>
     <mergeCell ref="A55:D55"/>
@@ -2434,13 +2539,20 @@
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A125:D126"/>
-    <mergeCell ref="A98:D99"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A116:D117"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A91:D91"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="120">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -498,15 +498,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完善【创群，加群】前端逻辑部分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>辅助完善【创群，加群】前端逻辑部分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日期：2018.11.7 第十周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待测试【创群】功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【聊天页面】UI即将完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.8 第十周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试【创群】后台功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【群功能】后台数据库部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善【聊天页面】前端UI部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【群功能】交互文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善【创群】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善【加群】前端逻辑部分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -664,16 +696,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -685,23 +729,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W135"/>
+  <dimension ref="A1:W144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:D127"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1021,18 +1053,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="T1" s="11" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="T1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1153,36 +1185,36 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="T8" s="9" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="T8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1259,26 +1291,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -1355,26 +1387,26 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -1451,26 +1483,26 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -1547,26 +1579,26 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -1645,26 +1677,26 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
@@ -1684,7 +1716,7 @@
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3">
@@ -1696,7 +1728,7 @@
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="3">
         <v>1</v>
       </c>
@@ -1706,7 +1738,7 @@
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -1716,7 +1748,7 @@
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="3">
         <v>1</v>
       </c>
@@ -1726,33 +1758,33 @@
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
@@ -1772,10 +1804,10 @@
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="20">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
@@ -1784,18 +1816,18 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="18"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="20">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
@@ -1804,8 +1836,8 @@
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1821,26 +1853,26 @@
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
@@ -1866,7 +1898,7 @@
       <c r="C75" s="3">
         <v>0.9</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1880,7 +1912,7 @@
       <c r="C76" s="3">
         <v>0.9</v>
       </c>
-      <c r="D76" s="20"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
@@ -1921,26 +1953,26 @@
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
@@ -2019,26 +2051,26 @@
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
@@ -2064,7 +2096,7 @@
       <c r="C93" s="3">
         <v>0.9</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="12" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2078,7 +2110,7 @@
       <c r="C94" s="3">
         <v>0.9</v>
       </c>
-      <c r="D94" s="20"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
@@ -2117,26 +2149,26 @@
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -2217,26 +2249,26 @@
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
@@ -2313,26 +2345,26 @@
       <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
@@ -2413,26 +2445,26 @@
       <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
+      <c r="A127" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
@@ -2455,8 +2487,12 @@
       <c r="B129" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="2"/>
+      <c r="C129" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
@@ -2465,7 +2501,9 @@
       <c r="B130" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C130" s="3"/>
+      <c r="C130" s="3">
+        <v>1</v>
+      </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
@@ -2475,17 +2513,23 @@
       <c r="B131" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="2"/>
+      <c r="C131" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C132" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1</v>
+      </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
@@ -2493,32 +2537,132 @@
         <v>7</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C133" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="C133" s="3">
+        <v>1</v>
+      </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A134:D135"/>
-    <mergeCell ref="A125:D126"/>
-    <mergeCell ref="A98:D99"/>
-    <mergeCell ref="D93:D94"/>
+  <mergeCells count="41">
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A143:D144"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A89:D90"/>
     <mergeCell ref="A118:D118"/>
@@ -2535,24 +2679,14 @@
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A134:D135"/>
+    <mergeCell ref="A125:D126"/>
+    <mergeCell ref="A98:D99"/>
+    <mergeCell ref="D93:D94"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A107:D108"/>
     <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A91:D91"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="134">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -539,6 +539,62 @@
   </si>
   <si>
     <t>完善【加群】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：创群功能测试完成，并开始加群功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复【加群】前端中搜索群逻辑部分BUG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：第十周周末发现了前端搜索群时没有展示全部群的BUG，今天修复完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【历史消息】【群通知】前端UI部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充【加群】交互文档内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台功能控制，并将BUG汇报给组长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.12 第十一周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.14 第十一周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【群功能】后台逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充【群功能】后台数据库部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【群功能】前端UI部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【群详细】【加群通知】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【群功能-获取群员】【群功能-踢出群员】交互文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -705,19 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -729,11 +773,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W144"/>
+  <dimension ref="A1:W162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1691,7 +1747,7 @@
       <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B55" s="9"/>
@@ -1716,7 +1772,7 @@
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3">
@@ -1728,7 +1784,7 @@
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="16"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="3">
         <v>1</v>
       </c>
@@ -1738,7 +1794,7 @@
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="16"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -1748,7 +1804,7 @@
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="16"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="3">
         <v>1</v>
       </c>
@@ -1758,7 +1814,7 @@
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="17"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
@@ -1779,7 +1835,7 @@
       <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B64" s="9"/>
@@ -1804,10 +1860,10 @@
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="17">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
@@ -1816,18 +1872,18 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="21"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="17">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
@@ -1836,8 +1892,8 @@
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="21"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1898,7 +1954,7 @@
       <c r="C75" s="3">
         <v>0.9</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1912,7 +1968,7 @@
       <c r="C76" s="3">
         <v>0.9</v>
       </c>
-      <c r="D76" s="13"/>
+      <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
@@ -2096,7 +2152,7 @@
       <c r="C93" s="3">
         <v>0.9</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D93" s="19" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2110,7 +2166,7 @@
       <c r="C94" s="3">
         <v>0.9</v>
       </c>
-      <c r="D94" s="13"/>
+      <c r="D94" s="20"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
@@ -2587,7 +2643,9 @@
       <c r="B138" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C138" s="3"/>
+      <c r="C138" s="3">
+        <v>1</v>
+      </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
@@ -2597,7 +2655,9 @@
       <c r="B139" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C139" s="3"/>
+      <c r="C139" s="3">
+        <v>1</v>
+      </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
@@ -2607,7 +2667,9 @@
       <c r="B140" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C140" s="3"/>
+      <c r="C140" s="3">
+        <v>1</v>
+      </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
@@ -2617,7 +2679,9 @@
       <c r="B141" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C141" s="3"/>
+      <c r="C141" s="3">
+        <v>1</v>
+      </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
@@ -2627,12 +2691,14 @@
       <c r="B142" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C142" s="3"/>
+      <c r="C142" s="3">
+        <v>1</v>
+      </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="10" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -2644,29 +2710,196 @@
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
     </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C147" s="3">
+        <v>1</v>
+      </c>
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1</v>
+      </c>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C150" s="3">
+        <v>1</v>
+      </c>
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C151" s="3">
+        <v>1</v>
+      </c>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A143:D144"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A116:D117"/>
+  <mergeCells count="45">
+    <mergeCell ref="A161:D162"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A152:D153"/>
+    <mergeCell ref="A154:D154"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="T8:W9"/>
     <mergeCell ref="A55:D55"/>
@@ -2679,14 +2912,33 @@
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A143:D144"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A116:D117"/>
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A134:D135"/>
     <mergeCell ref="A125:D126"/>
     <mergeCell ref="A98:D99"/>
     <mergeCell ref="D93:D94"/>
     <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="141">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -595,6 +595,47 @@
   </si>
   <si>
     <t>编写【群功能-获取群员】【群功能-踢出群员】交互文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.15 第十一周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：已编写加群时通知类功能部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【通知处理】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写【通知处理】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【获取群员位置信息】交互文档内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试【群功能-获取群员】【群功能-踢出群员】后台逻辑部分，编写【获取群员位置信息】后台逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>编写【个人信息】前端U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I部分</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -752,28 +793,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -788,7 +826,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,32 +1136,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W162"/>
+  <dimension ref="A1:W171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="2" max="2" width="88" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="T1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1241,36 +1282,36 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="T8" s="10" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="T8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1347,26 +1388,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -1443,26 +1484,26 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -1539,26 +1580,26 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -1635,26 +1676,26 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -1733,26 +1774,26 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
@@ -1772,7 +1813,7 @@
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3">
@@ -1784,7 +1825,7 @@
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="3">
         <v>1</v>
       </c>
@@ -1794,7 +1835,7 @@
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -1804,7 +1845,7 @@
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="3">
         <v>1</v>
       </c>
@@ -1814,33 +1855,33 @@
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
@@ -1860,10 +1901,10 @@
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="16">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
@@ -1872,18 +1913,18 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="18"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="16">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
@@ -1892,8 +1933,8 @@
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="18"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1909,26 +1950,26 @@
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
@@ -1954,7 +1995,7 @@
       <c r="C75" s="3">
         <v>0.9</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1968,7 +2009,7 @@
       <c r="C76" s="3">
         <v>0.9</v>
       </c>
-      <c r="D76" s="20"/>
+      <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
@@ -2009,26 +2050,26 @@
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
@@ -2107,26 +2148,26 @@
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
@@ -2152,7 +2193,7 @@
       <c r="C93" s="3">
         <v>0.9</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2166,7 +2207,7 @@
       <c r="C94" s="3">
         <v>0.9</v>
       </c>
-      <c r="D94" s="20"/>
+      <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
@@ -2205,26 +2246,26 @@
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -2305,26 +2346,26 @@
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
@@ -2401,26 +2442,26 @@
       <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
@@ -2501,26 +2542,26 @@
       <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
@@ -2601,26 +2642,26 @@
       <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
@@ -2697,26 +2738,26 @@
       <c r="D142" s="2"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
@@ -2793,26 +2834,26 @@
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
@@ -2835,7 +2876,9 @@
       <c r="B156" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C156" s="3"/>
+      <c r="C156" s="3">
+        <v>1</v>
+      </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
@@ -2845,7 +2888,9 @@
       <c r="B157" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C157" s="3"/>
+      <c r="C157" s="3">
+        <v>1</v>
+      </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
@@ -2855,7 +2900,9 @@
       <c r="B158" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C158" s="3"/>
+      <c r="C158" s="3">
+        <v>1</v>
+      </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
@@ -2865,7 +2912,9 @@
       <c r="B159" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C159" s="3"/>
+      <c r="C159" s="3">
+        <v>1</v>
+      </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
@@ -2875,31 +2924,138 @@
       <c r="B160" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C160" s="3"/>
+      <c r="C160" s="3">
+        <v>1</v>
+      </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C167" s="3"/>
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C168" s="3"/>
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C169" s="3"/>
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A161:D162"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A152:D153"/>
-    <mergeCell ref="A154:D154"/>
+  <mergeCells count="47">
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A170:D171"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A143:D144"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A116:D117"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A134:D135"/>
+    <mergeCell ref="A125:D126"/>
+    <mergeCell ref="A98:D99"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="D75:D76"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="T8:W9"/>
     <mergeCell ref="A55:D55"/>
@@ -2916,29 +3072,12 @@
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A143:D144"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A116:D117"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A134:D135"/>
-    <mergeCell ref="A125:D126"/>
-    <mergeCell ref="A98:D99"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A161:D162"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A152:D153"/>
+    <mergeCell ref="A154:D154"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E30B509-9EDB-48B9-83D2-804ECCB7EA6A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="146">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -638,11 +644,31 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>编写【动态显示群员位置】后台逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【动态显示群员位置】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：周四、五、六三天把通知处理编写完成，实现群员加群初步功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：地图显示位置功能已编写完成，之后开始准备编写聊天功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.19 第十二周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -793,25 +819,34 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -820,16 +855,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,7 +918,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,9 +951,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -960,6 +1003,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1135,35 +1195,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172:D172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="88" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="93.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="T1" s="11" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="T1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1207,7 +1267,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1225,7 +1285,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1303,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1261,7 +1321,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1281,39 +1341,39 @@
       <c r="V7" s="3"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="T8" s="9" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="T8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1327,7 +1387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1339,7 +1399,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1351,7 +1411,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +1423,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1375,7 +1435,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1387,29 +1447,29 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1423,7 +1483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1435,7 +1495,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -1447,7 +1507,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1459,7 +1519,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1531,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1483,29 +1543,29 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1519,7 +1579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1531,7 +1591,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
@@ -1543,7 +1603,7 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +1615,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1567,7 +1627,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -1579,29 +1639,29 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1615,7 +1675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1627,7 +1687,7 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>7</v>
       </c>
@@ -1639,7 +1699,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -1651,7 +1711,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -1663,7 +1723,7 @@
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -1675,29 +1735,29 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +1771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -1725,7 +1785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>7</v>
       </c>
@@ -1737,7 +1797,7 @@
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
@@ -1749,7 +1809,7 @@
       </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>9</v>
       </c>
@@ -1761,7 +1821,7 @@
       </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
@@ -1773,29 +1833,29 @@
       </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="12" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -1809,11 +1869,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3">
@@ -1821,69 +1881,69 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="14"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="3">
         <v>1</v>
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="14"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="3">
         <v>1</v>
       </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="14"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="3">
         <v>1</v>
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="15"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="9" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="12" t="s">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
@@ -1897,47 +1957,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="19">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="17"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="19">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="17"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>51</v>
       </c>
@@ -1949,29 +2009,29 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="9" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="11" t="s">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
@@ -1985,7 +2045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -1995,11 +2055,11 @@
       <c r="C75" s="3">
         <v>0.9</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>57</v>
       </c>
@@ -2009,9 +2069,9 @@
       <c r="C76" s="3">
         <v>0.9</v>
       </c>
-      <c r="D76" s="19"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D76" s="17"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
@@ -2023,7 +2083,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
@@ -2037,7 +2097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
@@ -2049,29 +2109,29 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="9" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="11" t="s">
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -2085,7 +2145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -2097,7 +2157,7 @@
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>57</v>
       </c>
@@ -2109,7 +2169,7 @@
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -2123,7 +2183,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>9</v>
       </c>
@@ -2135,7 +2195,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>7</v>
       </c>
@@ -2147,29 +2207,29 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="9" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="11" t="s">
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -2183,7 +2243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -2193,11 +2253,11 @@
       <c r="C93" s="3">
         <v>0.9</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>10</v>
       </c>
@@ -2207,9 +2267,9 @@
       <c r="C94" s="3">
         <v>0.9</v>
       </c>
-      <c r="D94" s="19"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D94" s="17"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>8</v>
       </c>
@@ -2221,7 +2281,7 @@
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>9</v>
       </c>
@@ -2233,7 +2293,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>7</v>
       </c>
@@ -2245,29 +2305,29 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="9" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="11" t="s">
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -2281,7 +2341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -2293,7 +2353,7 @@
       </c>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>10</v>
       </c>
@@ -2305,7 +2365,7 @@
       </c>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>8</v>
       </c>
@@ -2319,7 +2379,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>9</v>
       </c>
@@ -2333,7 +2393,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
@@ -2345,29 +2405,29 @@
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="9" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="11" t="s">
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -2381,7 +2441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>6</v>
       </c>
@@ -2393,7 +2453,7 @@
       </c>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>10</v>
       </c>
@@ -2405,7 +2465,7 @@
       </c>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>8</v>
       </c>
@@ -2417,7 +2477,7 @@
       </c>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>9</v>
       </c>
@@ -2429,7 +2489,7 @@
       </c>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>7</v>
       </c>
@@ -2441,29 +2501,29 @@
       </c>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="9" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="11" t="s">
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
@@ -2477,7 +2537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
@@ -2489,7 +2549,7 @@
       </c>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>10</v>
       </c>
@@ -2501,7 +2561,7 @@
       </c>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>8</v>
       </c>
@@ -2515,7 +2575,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>9</v>
       </c>
@@ -2529,7 +2589,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>7</v>
       </c>
@@ -2541,29 +2601,29 @@
       </c>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="9" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="11" t="s">
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>1</v>
       </c>
@@ -2577,7 +2637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>6</v>
       </c>
@@ -2591,7 +2651,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>57</v>
       </c>
@@ -2603,7 +2663,7 @@
       </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>8</v>
       </c>
@@ -2617,7 +2677,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>9</v>
       </c>
@@ -2629,7 +2689,7 @@
       </c>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>7</v>
       </c>
@@ -2641,29 +2701,29 @@
       </c>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="9" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="11" t="s">
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1</v>
       </c>
@@ -2677,7 +2737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>6</v>
       </c>
@@ -2689,7 +2749,7 @@
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>57</v>
       </c>
@@ -2701,7 +2761,7 @@
       </c>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>8</v>
       </c>
@@ -2713,7 +2773,7 @@
       </c>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>9</v>
       </c>
@@ -2725,7 +2785,7 @@
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>7</v>
       </c>
@@ -2737,29 +2797,29 @@
       </c>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="9" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="11" t="s">
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -2773,7 +2833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>6</v>
       </c>
@@ -2785,7 +2845,7 @@
       </c>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>10</v>
       </c>
@@ -2797,7 +2857,7 @@
       </c>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>8</v>
       </c>
@@ -2809,7 +2869,7 @@
       </c>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>9</v>
       </c>
@@ -2821,7 +2881,7 @@
       </c>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>7</v>
       </c>
@@ -2833,29 +2893,29 @@
       </c>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="9" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="11" t="s">
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>1</v>
       </c>
@@ -2869,7 +2929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>6</v>
       </c>
@@ -2881,7 +2941,7 @@
       </c>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>10</v>
       </c>
@@ -2893,7 +2953,7 @@
       </c>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>8</v>
       </c>
@@ -2905,7 +2965,7 @@
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>9</v>
       </c>
@@ -2917,7 +2977,7 @@
       </c>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>7</v>
       </c>
@@ -2929,29 +2989,29 @@
       </c>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="9" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="11" t="s">
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1</v>
       </c>
@@ -2965,97 +3025,147 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C165" s="3"/>
+      <c r="C165" s="3">
+        <v>1</v>
+      </c>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C166" s="3"/>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C167" s="3"/>
+      <c r="C167" s="3">
+        <v>1</v>
+      </c>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C168" s="3"/>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C169" s="3"/>
+      <c r="C169" s="3">
+        <v>1</v>
+      </c>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="10"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A170:D171"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A143:D144"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A116:D117"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A134:D135"/>
-    <mergeCell ref="A125:D126"/>
-    <mergeCell ref="A98:D99"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="D75:D76"/>
+  <mergeCells count="49">
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A152:D153"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A176:D177"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="T8:W9"/>
     <mergeCell ref="A55:D55"/>
@@ -3072,12 +3182,34 @@
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A170:D171"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A143:D144"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A116:D117"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A134:D135"/>
+    <mergeCell ref="A125:D126"/>
+    <mergeCell ref="A98:D99"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A100:D100"/>
     <mergeCell ref="A161:D162"/>
     <mergeCell ref="A107:D108"/>
     <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A152:D153"/>
-    <mergeCell ref="A154:D154"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3086,12 +3218,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3100,12 +3232,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E30B509-9EDB-48B9-83D2-804ECCB7EA6A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F515D6B0-8333-477E-A56E-BE222425C114}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="151">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -662,6 +662,26 @@
   </si>
   <si>
     <t>日期：2018.11.19 第十二周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改地图动态标点与弹窗冲突问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习WebSocket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善编写【个人信息】前端UI部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.21 第十二周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -828,25 +848,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -855,7 +866,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1196,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W177"/>
+  <dimension ref="A1:W184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172:D172"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183:D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1848,7 +1868,7 @@
       <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B55" s="9"/>
@@ -1873,7 +1893,7 @@
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3">
@@ -1885,7 +1905,7 @@
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="3">
         <v>1</v>
       </c>
@@ -1895,7 +1915,7 @@
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -1905,7 +1925,7 @@
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="3">
         <v>1</v>
       </c>
@@ -1915,7 +1935,7 @@
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
@@ -1936,7 +1956,7 @@
       <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B64" s="9"/>
@@ -1961,10 +1981,10 @@
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="16">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
@@ -1973,18 +1993,18 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="20"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="16">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
@@ -1993,8 +2013,8 @@
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2055,7 +2075,7 @@
       <c r="C75" s="3">
         <v>0.9</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2069,7 +2089,7 @@
       <c r="C76" s="3">
         <v>0.9</v>
       </c>
-      <c r="D76" s="17"/>
+      <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -2253,7 +2273,7 @@
       <c r="C93" s="3">
         <v>0.9</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="D93" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2267,7 +2287,7 @@
       <c r="C94" s="3">
         <v>0.9</v>
       </c>
-      <c r="D94" s="17"/>
+      <c r="D94" s="19"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -3159,13 +3179,104 @@
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
     </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A152:D153"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A176:D177"/>
+  <mergeCells count="51">
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A183:D184"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A170:D171"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A143:D144"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A116:D117"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A134:D135"/>
+    <mergeCell ref="A125:D126"/>
+    <mergeCell ref="A98:D99"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A161:D162"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="T8:W9"/>
     <mergeCell ref="A55:D55"/>
@@ -3182,34 +3293,11 @@
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A170:D171"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A143:D144"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A116:D117"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A134:D135"/>
-    <mergeCell ref="A125:D126"/>
-    <mergeCell ref="A98:D99"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A161:D162"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A152:D153"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A176:D177"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F515D6B0-8333-477E-A56E-BE222425C114}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB26F5A4-286B-4969-9523-2D4699120777}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="160">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -681,7 +681,68 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
+    <t>编写【群聊类】后台逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【群聊类】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：商量websocket开发问题，并开始编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：已初步将逻辑部分编写完成，下次将进行本地和服务器两端的聊天记录保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.22 第十二周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王志豪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写测试文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11.2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十三周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【群聊类】后台聊天记录保存，以及记录发送到前端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【群聊类】前端聊天记录保存，以及与服务器记录同步</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -811,7 +872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,25 +900,22 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -866,10 +924,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -877,6 +935,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W184"/>
+  <dimension ref="A1:W197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183:D184"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1230,18 +1294,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="T1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1362,36 +1426,36 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="T8" s="10" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="T8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1468,26 +1532,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1564,26 +1628,26 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1660,26 +1724,26 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1756,26 +1820,26 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -1854,26 +1918,26 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -1893,7 +1957,7 @@
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3">
@@ -1905,7 +1969,7 @@
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="14"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="3">
         <v>1</v>
       </c>
@@ -1915,7 +1979,7 @@
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="14"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -1925,7 +1989,7 @@
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="14"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="3">
         <v>1</v>
       </c>
@@ -1935,33 +1999,33 @@
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="15"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -1981,10 +2045,10 @@
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="15">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
@@ -1993,18 +2057,18 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="17"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="15">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
@@ -2013,8 +2077,8 @@
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="17"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2030,26 +2094,26 @@
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -2075,7 +2139,7 @@
       <c r="C75" s="3">
         <v>0.9</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2089,7 +2153,7 @@
       <c r="C76" s="3">
         <v>0.9</v>
       </c>
-      <c r="D76" s="19"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -2130,26 +2194,26 @@
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -2228,26 +2292,26 @@
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2273,7 +2337,7 @@
       <c r="C93" s="3">
         <v>0.9</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="12" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2287,7 +2351,7 @@
       <c r="C94" s="3">
         <v>0.9</v>
       </c>
-      <c r="D94" s="19"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -2326,26 +2390,26 @@
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -2426,26 +2490,26 @@
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -2522,26 +2586,26 @@
       <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -2622,26 +2686,26 @@
       <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
@@ -2722,26 +2786,26 @@
       <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -2818,26 +2882,26 @@
       <c r="D142" s="2"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -2914,26 +2978,26 @@
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
@@ -3010,26 +3074,26 @@
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
@@ -3106,26 +3170,26 @@
       <c r="D169" s="2"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="10" t="s">
+      <c r="A170" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -3166,26 +3230,26 @@
       <c r="D175" s="2"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="10" t="s">
+      <c r="A176" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="9" t="s">
+      <c r="A178" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="9"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
@@ -3208,7 +3272,9 @@
       <c r="B180" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C180" s="2"/>
+      <c r="C180" s="3">
+        <v>1</v>
+      </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3218,7 +3284,9 @@
       <c r="B181" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C181" s="2"/>
+      <c r="C181" s="3">
+        <v>1</v>
+      </c>
       <c r="D181" s="2"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3228,25 +3296,190 @@
       <c r="B182" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C182" s="2"/>
+      <c r="C182" s="3">
+        <v>1</v>
+      </c>
       <c r="D182" s="2"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="10" t="s">
+      <c r="A183" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
+      <c r="C187" s="3">
+        <v>1</v>
+      </c>
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1</v>
+      </c>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="2"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="2"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B195" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="55">
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A196:D197"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A176:D177"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A189:D190"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T8:W9"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A62:D63"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A98:D99"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A161:D162"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A152:D153"/>
     <mergeCell ref="A107:D108"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="A178:D178"/>
@@ -3263,41 +3496,6 @@
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A134:D135"/>
     <mergeCell ref="A125:D126"/>
-    <mergeCell ref="A98:D99"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A161:D162"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="T8:W9"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A62:D63"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A152:D153"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A176:D177"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/10项目计划表.xlsx
+++ b/第10组/10项目计划表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB26F5A4-286B-4969-9523-2D4699120777}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3739914D-053C-4E5E-9D1E-77CDFF42492C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="193">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -743,6 +743,331 @@
   </si>
   <si>
     <t>编写【群聊类】前端聊天记录保存，以及与服务器记录同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送记录功能未完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录同步功能未完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：聊天记录保存功能已初步完成，待记录同步进行对接测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充【群资料修改】前端UI部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写测试文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善服务器聊天记录发送功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善客户端聊天记录同步功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：同步功能已完成，之后将会对中文乱码问题进行修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.28 第十三周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.11</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.29 第十三周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴瑞鹏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决服务器响应头"text/plain;ISO-9958-1"编码问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决客户端聊天记录保存乱码问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：已将乱码问题解决，工作已大致完成，剩下一些优化和小功能添加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十四周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【群资料修改】后台逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化整体UI界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【群资料修改】前端逻辑部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：添加了群资料修改的功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十四周周三</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张源华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【多设备登录限制】后台逻辑功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【多设备登录限制】前端逻辑功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十四周周四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台BUG修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端BUG修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试，进行BUG统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试，编写测试报告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：添加了多个设备登录同一个账户会被拒绝登录的功能，程序到此已全部完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：程序进行测试阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>日期：2018.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 第十五周周一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【使用文档】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：对测试中的BUG进行修复，以及编写使用文档</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,13 +1225,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -915,20 +1255,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -936,10 +1267,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W197"/>
+  <dimension ref="A1:W237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236:D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1426,28 +1757,28 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="T8" s="9" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="T8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -1532,18 +1863,18 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1628,18 +1959,18 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -1724,18 +2055,18 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -1820,18 +2151,18 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
@@ -1918,21 +2249,21 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B55" s="11"/>
@@ -1957,7 +2288,7 @@
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="3">
@@ -1969,7 +2300,7 @@
       <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="3">
         <v>1</v>
       </c>
@@ -1979,7 +2310,7 @@
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -1989,7 +2320,7 @@
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="3">
         <v>1</v>
       </c>
@@ -1999,28 +2330,28 @@
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="18"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B64" s="11"/>
@@ -2045,10 +2376,10 @@
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="19">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
@@ -2057,18 +2388,18 @@
       <c r="A67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="19">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
@@ -2077,8 +2408,8 @@
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="16"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2094,18 +2425,18 @@
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
@@ -2139,7 +2470,7 @@
       <c r="C75" s="3">
         <v>0.9</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2153,7 +2484,7 @@
       <c r="C76" s="3">
         <v>0.9</v>
       </c>
-      <c r="D76" s="13"/>
+      <c r="D76" s="18"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -2194,18 +2525,18 @@
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
@@ -2292,18 +2623,18 @@
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
@@ -2337,7 +2668,7 @@
       <c r="C93" s="3">
         <v>0.9</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D93" s="17" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2351,7 +2682,7 @@
       <c r="C94" s="3">
         <v>0.9</v>
       </c>
-      <c r="D94" s="13"/>
+      <c r="D94" s="18"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -2390,18 +2721,18 @@
       <c r="D97" s="2"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
@@ -2490,18 +2821,18 @@
       <c r="D106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
@@ -2586,18 +2917,18 @@
       <c r="D115" s="2"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
@@ -2686,18 +3017,18 @@
       <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
@@ -2786,18 +3117,18 @@
       <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
@@ -2882,18 +3213,18 @@
       <c r="D142" s="2"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
@@ -2978,18 +3309,18 @@
       <c r="D151" s="2"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B152" s="10"/>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
+      <c r="A153" s="13"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
@@ -3074,18 +3405,18 @@
       <c r="D160" s="2"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
+      <c r="A162" s="13"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
@@ -3170,18 +3501,18 @@
       <c r="D169" s="2"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
@@ -3230,18 +3561,18 @@
       <c r="D175" s="2"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="9" t="s">
+      <c r="A176" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B176" s="10"/>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
-      <c r="B177" s="10"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
+      <c r="A177" s="13"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
@@ -3302,18 +3633,18 @@
       <c r="D182" s="2"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="9" t="s">
+      <c r="A183" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B183" s="10"/>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="10"/>
-      <c r="B184" s="10"/>
-      <c r="C184" s="10"/>
-      <c r="D184" s="10"/>
+      <c r="A184" s="13"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
@@ -3362,21 +3693,21 @@
       <c r="D188" s="2"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B189" s="10"/>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10"/>
+      <c r="B189" s="13"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
-      <c r="B190" s="10"/>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
+      <c r="A190" s="13"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="14" t="s">
+      <c r="A191" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B191" s="11"/>
@@ -3404,8 +3735,12 @@
       <c r="B193" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C193" s="3"/>
-      <c r="D193" s="2"/>
+      <c r="C193" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
@@ -3414,40 +3749,490 @@
       <c r="B194" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C194" s="3"/>
-      <c r="D194" s="2"/>
+      <c r="C194" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="22" t="s">
+      <c r="A195" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B195" s="22" t="s">
+      <c r="B195" s="9" t="s">
         <v>156</v>
       </c>
+      <c r="C195" s="23">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B196" s="10"/>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
+      <c r="A196" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B196" s="13"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
-      <c r="B197" s="10"/>
-      <c r="C197" s="10"/>
-      <c r="D197" s="10"/>
+      <c r="A197" s="13"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1</v>
+      </c>
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1</v>
+      </c>
+      <c r="D201" s="2"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1</v>
+      </c>
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C203" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B204" s="13"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="13"/>
+      <c r="B205" s="13"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C208" s="3">
+        <v>1</v>
+      </c>
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C209" s="3">
+        <v>1</v>
+      </c>
+      <c r="D209" s="2"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B210" s="13"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="13"/>
+      <c r="B211" s="13"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C214" s="3">
+        <v>1</v>
+      </c>
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C215" s="3">
+        <v>1</v>
+      </c>
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C216" s="3">
+        <v>1</v>
+      </c>
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B217" s="13"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="13"/>
+      <c r="B218" s="13"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C221" s="3">
+        <v>1</v>
+      </c>
+      <c r="D221" s="2"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C222" s="3">
+        <v>1</v>
+      </c>
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B223" s="13"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="13"/>
+      <c r="B224" s="13"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B225" s="11"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C227" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C228" s="3">
+        <v>1</v>
+      </c>
+      <c r="D228" s="2"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B229" s="13"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="13"/>
+      <c r="B230" s="13"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B231" s="11"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="11"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C233" s="3">
+        <v>1</v>
+      </c>
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C234" s="3">
+        <v>1</v>
+      </c>
+      <c r="D234" s="2"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C235" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="13"/>
+      <c r="B237" s="13"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A191:D191"/>
-    <mergeCell ref="A196:D197"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A176:D177"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A189:D190"/>
+  <mergeCells count="67">
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A236:D237"/>
+    <mergeCell ref="A217:D218"/>
+    <mergeCell ref="A219:D219"/>
+    <mergeCell ref="A223:D224"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A229:D230"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A204:D205"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="A210:D211"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="A107:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A183:D184"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A170:D171"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A143:D144"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A116:D117"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A134:D135"/>
+    <mergeCell ref="A125:D126"/>
+    <mergeCell ref="A98:D99"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A161:D162"/>
+    <mergeCell ref="A44:D45"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A152:D153"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="T8:W9"/>
     <mergeCell ref="A55:D55"/>
@@ -3464,38 +4249,13 @@
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A98:D99"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A161:D162"/>
-    <mergeCell ref="A44:D45"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A71:D72"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A152:D153"/>
-    <mergeCell ref="A107:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A183:D184"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A89:D90"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A170:D171"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A143:D144"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A116:D117"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A134:D135"/>
-    <mergeCell ref="A125:D126"/>
+    <mergeCell ref="A191:D191"/>
+    <mergeCell ref="A196:D197"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A176:D177"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A189:D190"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
